--- a/pdtest2.xlsx
+++ b/pdtest2.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>pb1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>p1-t1</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>read vault</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr"/>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,12 +472,12 @@
           <t>pull key</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,17 +490,13 @@
           <t>p2-t1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>read csv</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,12 +514,12 @@
           <t>create list</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,12 +537,12 @@
           <t>merge list</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,12 +560,12 @@
           <t>export output</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pdtest2.xlsx
+++ b/pdtest2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,26 +434,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pb1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>p1-t1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>read vault</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -464,39 +464,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>p1-t2</t>
+          <t>p1-t1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pull key</t>
+          <t>read vault</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pb2</t>
+          <t>pb1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p2-t1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>p1-t2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pull key</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -509,16 +517,14 @@
           <t>p2-t1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>create list</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -529,20 +535,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p2-t2</t>
+          <t>p2-t1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>merge list</t>
+          <t>create list</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -557,15 +565,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>export output</t>
+          <t>merge list</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pb2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>p2-t2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>export output</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pdtest2.xlsx
+++ b/pdtest2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,33 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +507,15 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +541,15 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -518,14 +563,23 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -551,6 +605,15 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -576,6 +639,15 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -601,6 +673,15 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
